--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>105.863074054653</v>
+        <v>1.321445333333333</v>
       </c>
       <c r="N2">
-        <v>105.863074054653</v>
+        <v>3.964336</v>
       </c>
       <c r="O2">
-        <v>0.8356715064317114</v>
+        <v>0.01021782062667047</v>
       </c>
       <c r="P2">
-        <v>0.8356715064317114</v>
+        <v>0.01021782062667047</v>
       </c>
       <c r="Q2">
-        <v>2011.044351776346</v>
+        <v>28.87327483897955</v>
       </c>
       <c r="R2">
-        <v>2011.044351776346</v>
+        <v>259.859473550816</v>
       </c>
       <c r="S2">
-        <v>0.03730130688615103</v>
+        <v>0.000512936525695044</v>
       </c>
       <c r="T2">
-        <v>0.03730130688615103</v>
+        <v>0.0005129365256950441</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>20.8171743921137</v>
+        <v>105.9632263333333</v>
       </c>
       <c r="N3">
-        <v>20.8171743921137</v>
+        <v>317.889679</v>
       </c>
       <c r="O3">
-        <v>0.1643284935682886</v>
+        <v>0.819340166699254</v>
       </c>
       <c r="P3">
-        <v>0.1643284935682886</v>
+        <v>0.8193401666992541</v>
       </c>
       <c r="Q3">
-        <v>395.4566911555066</v>
+        <v>2315.271982556975</v>
       </c>
       <c r="R3">
-        <v>395.4566911555066</v>
+        <v>20837.44784301277</v>
       </c>
       <c r="S3">
-        <v>0.007335020425553456</v>
+        <v>0.04113103114886649</v>
       </c>
       <c r="T3">
-        <v>0.007335020425553456</v>
+        <v>0.04113103114886649</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>379.954067822278</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>379.954067822278</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.8927757890210728</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.8927757890210728</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>105.863074054653</v>
+        <v>22.04284166666666</v>
       </c>
       <c r="N4">
-        <v>105.863074054653</v>
+        <v>66.128525</v>
       </c>
       <c r="O4">
-        <v>0.8356715064317114</v>
+        <v>0.1704420126740755</v>
       </c>
       <c r="P4">
-        <v>0.8356715064317114</v>
+        <v>0.1704420126740755</v>
       </c>
       <c r="Q4">
-        <v>40223.10561923646</v>
+        <v>481.6309911726277</v>
       </c>
       <c r="R4">
-        <v>40223.10561923646</v>
+        <v>4334.67892055365</v>
       </c>
       <c r="S4">
-        <v>0.7460672885169997</v>
+        <v>0.008556221234233894</v>
       </c>
       <c r="T4">
-        <v>0.7460672885169997</v>
+        <v>0.008556221234233894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>20.8171743921137</v>
+        <v>1.321445333333333</v>
       </c>
       <c r="N5">
-        <v>20.8171743921137</v>
+        <v>3.964336</v>
       </c>
       <c r="O5">
-        <v>0.1643284935682886</v>
+        <v>0.01021782062667047</v>
       </c>
       <c r="P5">
-        <v>0.1643284935682886</v>
+        <v>0.01021782062667047</v>
       </c>
       <c r="Q5">
-        <v>7909.570090849357</v>
+        <v>508.8257900104551</v>
       </c>
       <c r="R5">
-        <v>7909.570090849357</v>
+        <v>4579.432110094097</v>
       </c>
       <c r="S5">
-        <v>0.1467085005040731</v>
+        <v>0.009039339471103204</v>
       </c>
       <c r="T5">
-        <v>0.1467085005040731</v>
+        <v>0.009039339471103205</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.63661054454</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>26.63661054454</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.06258788366722257</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.06258788366722257</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>105.863074054653</v>
+        <v>105.9632263333333</v>
       </c>
       <c r="N6">
-        <v>105.863074054653</v>
+        <v>317.889679</v>
       </c>
       <c r="O6">
-        <v>0.8356715064317114</v>
+        <v>0.819340166699254</v>
       </c>
       <c r="P6">
-        <v>0.8356715064317114</v>
+        <v>0.8193401666992541</v>
       </c>
       <c r="Q6">
-        <v>2819.833474641589</v>
+        <v>40801.40206414012</v>
       </c>
       <c r="R6">
-        <v>2819.833474641589</v>
+        <v>367212.6185772611</v>
       </c>
       <c r="S6">
-        <v>0.05230291102856058</v>
+        <v>0.724840861834372</v>
       </c>
       <c r="T6">
-        <v>0.05230291102856058</v>
+        <v>0.7248408618343721</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.63661054454</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>26.63661054454</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.06258788366722257</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.06258788366722257</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.8171743921137</v>
+        <v>22.04284166666666</v>
       </c>
       <c r="N7">
-        <v>20.8171743921137</v>
+        <v>66.128525</v>
       </c>
       <c r="O7">
-        <v>0.1643284935682886</v>
+        <v>0.1704420126740755</v>
       </c>
       <c r="P7">
-        <v>0.1643284935682886</v>
+        <v>0.1704420126740755</v>
       </c>
       <c r="Q7">
-        <v>554.4989669205039</v>
+        <v>8487.650636916531</v>
       </c>
       <c r="R7">
-        <v>554.4989669205039</v>
+        <v>76388.85573224878</v>
       </c>
       <c r="S7">
-        <v>0.01028497263866198</v>
+        <v>0.1507839361240659</v>
       </c>
       <c r="T7">
-        <v>0.01028497263866198</v>
+        <v>0.1507839361240659</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>28.350479</v>
+      </c>
+      <c r="H8">
+        <v>85.05143699999999</v>
+      </c>
+      <c r="I8">
+        <v>0.06513567366166337</v>
+      </c>
+      <c r="J8">
+        <v>0.06513567366166337</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.321445333333333</v>
+      </c>
+      <c r="N8">
+        <v>3.964336</v>
+      </c>
+      <c r="O8">
+        <v>0.01021782062667047</v>
+      </c>
+      <c r="P8">
+        <v>0.01021782062667047</v>
+      </c>
+      <c r="Q8">
+        <v>37.46360817231466</v>
+      </c>
+      <c r="R8">
+        <v>337.172473550832</v>
+      </c>
+      <c r="S8">
+        <v>0.0006655446298722203</v>
+      </c>
+      <c r="T8">
+        <v>0.0006655446298722204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>28.350479</v>
+      </c>
+      <c r="H9">
+        <v>85.05143699999999</v>
+      </c>
+      <c r="I9">
+        <v>0.06513567366166337</v>
+      </c>
+      <c r="J9">
+        <v>0.06513567366166337</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>105.9632263333333</v>
+      </c>
+      <c r="N9">
+        <v>317.889679</v>
+      </c>
+      <c r="O9">
+        <v>0.819340166699254</v>
+      </c>
+      <c r="P9">
+        <v>0.8193401666992541</v>
+      </c>
+      <c r="Q9">
+        <v>3004.108222935413</v>
+      </c>
+      <c r="R9">
+        <v>27036.97400641872</v>
+      </c>
+      <c r="S9">
+        <v>0.05336827371601548</v>
+      </c>
+      <c r="T9">
+        <v>0.05336827371601548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>28.350479</v>
+      </c>
+      <c r="H10">
+        <v>85.05143699999999</v>
+      </c>
+      <c r="I10">
+        <v>0.06513567366166337</v>
+      </c>
+      <c r="J10">
+        <v>0.06513567366166337</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>22.04284166666666</v>
+      </c>
+      <c r="N10">
+        <v>66.128525</v>
+      </c>
+      <c r="O10">
+        <v>0.1704420126740755</v>
+      </c>
+      <c r="P10">
+        <v>0.1704420126740755</v>
+      </c>
+      <c r="Q10">
+        <v>624.9251197711582</v>
+      </c>
+      <c r="R10">
+        <v>5624.326077940425</v>
+      </c>
+      <c r="S10">
+        <v>0.01110185531577567</v>
+      </c>
+      <c r="T10">
+        <v>0.01110185531577567</v>
       </c>
     </row>
   </sheetData>
